--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Infarto de Miocardio.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.34796049432905</v>
+        <v>21.35440284743693</v>
       </c>
       <c r="B2" t="n">
-        <v>17.48678879979305</v>
+        <v>17.40299466822062</v>
       </c>
       <c r="C2" t="n">
-        <v>25.32449772230203</v>
+        <v>25.32300762990845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.5016819960646</v>
+        <v>20.46517804228278</v>
       </c>
       <c r="B3" t="n">
-        <v>15.83895780685919</v>
+        <v>15.81119853729592</v>
       </c>
       <c r="C3" t="n">
-        <v>25.59912608976023</v>
+        <v>25.67267452169189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.42691595846745</v>
+        <v>20.5659071169152</v>
       </c>
       <c r="B4" t="n">
-        <v>16.68597873325671</v>
+        <v>16.75873551055823</v>
       </c>
       <c r="C4" t="n">
-        <v>25.27058824031508</v>
+        <v>25.33821082049982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.87149765326932</v>
+        <v>24.85461011005425</v>
       </c>
       <c r="B5" t="n">
-        <v>19.09367098474389</v>
+        <v>19.06939777675148</v>
       </c>
       <c r="C5" t="n">
-        <v>31.11782122783056</v>
+        <v>30.99478731972179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.24262533303252</v>
+        <v>26.19568006624921</v>
       </c>
       <c r="B6" t="n">
-        <v>21.79652347745669</v>
+        <v>21.57662977533497</v>
       </c>
       <c r="C6" t="n">
-        <v>31.03064606871267</v>
+        <v>30.9694320834139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.28663826901308</v>
+        <v>19.27940675326991</v>
       </c>
       <c r="B7" t="n">
-        <v>16.65065180193816</v>
+        <v>16.55786402227356</v>
       </c>
       <c r="C7" t="n">
-        <v>22.29715156998974</v>
+        <v>22.40840338581645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.17363433686989</v>
+        <v>10.16793502270741</v>
       </c>
       <c r="B8" t="n">
-        <v>4.9424169666071</v>
+        <v>4.992191239848661</v>
       </c>
       <c r="C8" t="n">
-        <v>15.73875032954791</v>
+        <v>15.78123094695072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.44477261215385</v>
+        <v>24.45941876439536</v>
       </c>
       <c r="B9" t="n">
-        <v>20.28419109215537</v>
+        <v>20.61236004495651</v>
       </c>
       <c r="C9" t="n">
-        <v>29.20447769073208</v>
+        <v>29.27056695756565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.10641373139736</v>
+        <v>10.12206508708837</v>
       </c>
       <c r="B10" t="n">
-        <v>4.883929432975345</v>
+        <v>5.093141499906425</v>
       </c>
       <c r="C10" t="n">
-        <v>16.28424750653332</v>
+        <v>16.24157107696975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17.87988719715348</v>
+        <v>17.9799394048935</v>
       </c>
       <c r="B11" t="n">
-        <v>13.20722605233525</v>
+        <v>13.40485233010809</v>
       </c>
       <c r="C11" t="n">
-        <v>22.22552459749961</v>
+        <v>22.46111089213312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.93939980287969</v>
+        <v>26.94533332817084</v>
       </c>
       <c r="B12" t="n">
-        <v>22.21239782687303</v>
+        <v>22.21507864840985</v>
       </c>
       <c r="C12" t="n">
-        <v>31.45785983229494</v>
+        <v>31.45720231131714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.65279335631723</v>
+        <v>12.64489150394787</v>
       </c>
       <c r="B13" t="n">
-        <v>6.699437532137737</v>
+        <v>6.661529136544638</v>
       </c>
       <c r="C13" t="n">
-        <v>19.91828175861154</v>
+        <v>20.23858100005091</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.8803918895146</v>
+        <v>14.72233376916495</v>
       </c>
       <c r="B14" t="n">
-        <v>9.585525172216123</v>
+        <v>9.497928009090213</v>
       </c>
       <c r="C14" t="n">
-        <v>20.05763465422526</v>
+        <v>20.15579444067186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29.00046347786749</v>
+        <v>29.03456591231918</v>
       </c>
       <c r="B15" t="n">
-        <v>23.43680888534042</v>
+        <v>23.35064153849675</v>
       </c>
       <c r="C15" t="n">
-        <v>35.56356226043852</v>
+        <v>35.86897436024218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.266694667507</v>
+        <v>26.24797407641537</v>
       </c>
       <c r="B16" t="n">
-        <v>21.81917492196513</v>
+        <v>21.59702931924242</v>
       </c>
       <c r="C16" t="n">
-        <v>31.05897585136465</v>
+        <v>31.0327852337292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26.97856759039861</v>
+        <v>26.97754453567621</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0959638527595</v>
+        <v>22.22360870354044</v>
       </c>
       <c r="C17" t="n">
-        <v>31.37794129602838</v>
+        <v>31.48400331859357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.4152406435345</v>
+        <v>20.59789928049854</v>
       </c>
       <c r="B18" t="n">
-        <v>16.92537424465265</v>
+        <v>16.71735006935798</v>
       </c>
       <c r="C18" t="n">
-        <v>25.51191933735168</v>
+        <v>25.40335053298117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.66356253142502</v>
+        <v>18.64662300382194</v>
       </c>
       <c r="B19" t="n">
-        <v>13.67572553388484</v>
+        <v>13.65814444452797</v>
       </c>
       <c r="C19" t="n">
-        <v>24.04111432492452</v>
+        <v>24.02813933614454</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.44023363515912</v>
+        <v>29.58779566904156</v>
       </c>
       <c r="B20" t="n">
-        <v>24.57737108616686</v>
+        <v>24.5365450956254</v>
       </c>
       <c r="C20" t="n">
-        <v>34.26100127064359</v>
+        <v>34.5246837717676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>29.00712148309627</v>
+        <v>29.00235908482292</v>
       </c>
       <c r="B21" t="n">
-        <v>23.55772495137884</v>
+        <v>23.87404234520151</v>
       </c>
       <c r="C21" t="n">
-        <v>34.66621697882248</v>
+        <v>34.94931120808728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.49985156909842</v>
+        <v>10.60257737430165</v>
       </c>
       <c r="B22" t="n">
-        <v>4.894822543606296</v>
+        <v>4.880429883561058</v>
       </c>
       <c r="C22" t="n">
-        <v>17.58280905190989</v>
+        <v>17.41572002622064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.79894653217638</v>
+        <v>30.78653202353242</v>
       </c>
       <c r="B23" t="n">
-        <v>25.13769359756797</v>
+        <v>24.89583517379213</v>
       </c>
       <c r="C23" t="n">
-        <v>37.74570264343142</v>
+        <v>37.63742548071873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.2630103874736</v>
+        <v>26.24797407641537</v>
       </c>
       <c r="B24" t="n">
-        <v>21.8164609499015</v>
+        <v>21.59702931924242</v>
       </c>
       <c r="C24" t="n">
-        <v>31.13241996557844</v>
+        <v>31.0327852337292</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.54406263818985</v>
+        <v>22.46316093330266</v>
       </c>
       <c r="B25" t="n">
-        <v>18.81887717168633</v>
+        <v>18.83228079819082</v>
       </c>
       <c r="C25" t="n">
-        <v>26.25412671903019</v>
+        <v>26.19568762519166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>29.26744339243121</v>
+        <v>29.34499627619601</v>
       </c>
       <c r="B26" t="n">
-        <v>23.97811597016672</v>
+        <v>24.59503716303839</v>
       </c>
       <c r="C26" t="n">
-        <v>34.45769285942167</v>
+        <v>34.62307893385925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13.01068911829519</v>
+        <v>13.00651309338144</v>
       </c>
       <c r="B27" t="n">
-        <v>6.665289271928995</v>
+        <v>6.675478500609001</v>
       </c>
       <c r="C27" t="n">
-        <v>21.01876343699557</v>
+        <v>20.9646212333834</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.41782583189504</v>
+        <v>20.39540672253426</v>
       </c>
       <c r="B28" t="n">
-        <v>16.59398997056512</v>
+        <v>16.62416845775601</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28762248707885</v>
+        <v>24.30745427422584</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>33.03795484533825</v>
+        <v>33.12345088628776</v>
       </c>
       <c r="B29" t="n">
-        <v>26.0157923357405</v>
+        <v>25.54782596049457</v>
       </c>
       <c r="C29" t="n">
-        <v>39.82313244295422</v>
+        <v>39.87908183529395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.66489625490405</v>
+        <v>25.66799320215381</v>
       </c>
       <c r="B30" t="n">
-        <v>21.63271233971946</v>
+        <v>21.69198451175626</v>
       </c>
       <c r="C30" t="n">
-        <v>30.10229272077852</v>
+        <v>30.15833528286886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.42067685375902</v>
+        <v>14.38180272393517</v>
       </c>
       <c r="B31" t="n">
-        <v>9.035462203730585</v>
+        <v>9.014471796323239</v>
       </c>
       <c r="C31" t="n">
-        <v>19.24742826158384</v>
+        <v>19.65954080733745</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.12151684306889</v>
+        <v>12.07285710960874</v>
       </c>
       <c r="B32" t="n">
-        <v>7.182388217445123</v>
+        <v>6.924145520968043</v>
       </c>
       <c r="C32" t="n">
-        <v>17.90681339547496</v>
+        <v>18.04051085518306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.87280075066781</v>
+        <v>14.75577647820463</v>
       </c>
       <c r="B33" t="n">
-        <v>9.85182086376774</v>
+        <v>9.912607647667462</v>
       </c>
       <c r="C33" t="n">
-        <v>20.28061183072842</v>
+        <v>20.47474096475314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.2577710379332</v>
+        <v>23.25862256463439</v>
       </c>
       <c r="B34" t="n">
-        <v>18.63606057139503</v>
+        <v>18.59080453856694</v>
       </c>
       <c r="C34" t="n">
-        <v>28.90065294559887</v>
+        <v>28.92472543123027</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27.97862107344294</v>
+        <v>27.99000010796927</v>
       </c>
       <c r="B35" t="n">
-        <v>23.40198863663737</v>
+        <v>23.25282439132815</v>
       </c>
       <c r="C35" t="n">
-        <v>32.92293449525201</v>
+        <v>32.82710784864798</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.27632827077181</v>
+        <v>19.23398441712455</v>
       </c>
       <c r="B36" t="n">
-        <v>15.98916386666427</v>
+        <v>16.0780844113709</v>
       </c>
       <c r="C36" t="n">
-        <v>22.59217618276112</v>
+        <v>22.61114321010599</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30.74950332689997</v>
+        <v>30.76790245543374</v>
       </c>
       <c r="B37" t="n">
-        <v>25.16156709702135</v>
+        <v>25.57827995143979</v>
       </c>
       <c r="C37" t="n">
-        <v>36.73943408947461</v>
+        <v>36.7197686699047</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.12308342016343</v>
+        <v>15.15165441290611</v>
       </c>
       <c r="B38" t="n">
-        <v>9.424931059862908</v>
+        <v>9.919092188160096</v>
       </c>
       <c r="C38" t="n">
-        <v>21.58947876339179</v>
+        <v>21.56595478514924</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.37520173948355</v>
+        <v>27.40430200393376</v>
       </c>
       <c r="B39" t="n">
-        <v>23.04020120072957</v>
+        <v>22.88968686830509</v>
       </c>
       <c r="C39" t="n">
-        <v>31.87914318028199</v>
+        <v>31.74665653934783</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.79853023432324</v>
+        <v>24.81046989252902</v>
       </c>
       <c r="B40" t="n">
-        <v>20.29889912127605</v>
+        <v>20.24863346008688</v>
       </c>
       <c r="C40" t="n">
-        <v>29.80443679631638</v>
+        <v>29.85225864621885</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.9762648093111</v>
+        <v>18.01019939613991</v>
       </c>
       <c r="B41" t="n">
-        <v>15.08945701715721</v>
+        <v>15.10321019505389</v>
       </c>
       <c r="C41" t="n">
-        <v>20.70822531681371</v>
+        <v>20.70120880593804</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.17792950388754</v>
+        <v>18.22207605481543</v>
       </c>
       <c r="B42" t="n">
-        <v>13.17858505813076</v>
+        <v>13.19621269595527</v>
       </c>
       <c r="C42" t="n">
-        <v>23.42967516495789</v>
+        <v>23.39604641897973</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.65454247888469</v>
+        <v>25.66799320215381</v>
       </c>
       <c r="B43" t="n">
-        <v>21.62333569826693</v>
+        <v>21.69198451175626</v>
       </c>
       <c r="C43" t="n">
-        <v>30.10229272077852</v>
+        <v>30.15833528286886</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.78316426077183</v>
+        <v>15.80603639507733</v>
       </c>
       <c r="B44" t="n">
-        <v>12.77342423675233</v>
+        <v>12.78969308824441</v>
       </c>
       <c r="C44" t="n">
-        <v>18.93702447201746</v>
+        <v>18.8987901791203</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18.82920300908235</v>
+        <v>18.86924146006509</v>
       </c>
       <c r="B45" t="n">
-        <v>13.76751263825795</v>
+        <v>13.71086760367978</v>
       </c>
       <c r="C45" t="n">
-        <v>24.68256202185744</v>
+        <v>24.69780601820212</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.04583173672532</v>
+        <v>13.98832080062743</v>
       </c>
       <c r="B46" t="n">
-        <v>9.437300872720426</v>
+        <v>9.8891746807078</v>
       </c>
       <c r="C46" t="n">
-        <v>18.47391768938391</v>
+        <v>18.53846958621791</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.64624854094796</v>
+        <v>10.69212141709375</v>
       </c>
       <c r="B47" t="n">
-        <v>4.870172724360794</v>
+        <v>4.894988708032145</v>
       </c>
       <c r="C47" t="n">
-        <v>18.65398793589169</v>
+        <v>18.57720191585278</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.10627510230813</v>
+        <v>27.13848927895366</v>
       </c>
       <c r="B48" t="n">
-        <v>22.11568484388109</v>
+        <v>22.29053005635303</v>
       </c>
       <c r="C48" t="n">
-        <v>31.57679019709516</v>
+        <v>31.76097528945665</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.69847079782437</v>
+        <v>22.80542572449308</v>
       </c>
       <c r="B49" t="n">
-        <v>18.77571052441601</v>
+        <v>18.16759686694186</v>
       </c>
       <c r="C49" t="n">
-        <v>28.29496189698932</v>
+        <v>27.76653866406352</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30.76474520605255</v>
+        <v>30.77343342930809</v>
       </c>
       <c r="B50" t="n">
-        <v>25.22808518813587</v>
+        <v>25.68158874674743</v>
       </c>
       <c r="C50" t="n">
-        <v>36.70997945565364</v>
+        <v>36.67926683009082</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.42763660676753</v>
+        <v>20.50540048967093</v>
       </c>
       <c r="B51" t="n">
-        <v>15.89498775224329</v>
+        <v>15.89553849628366</v>
       </c>
       <c r="C51" t="n">
-        <v>25.44518649486281</v>
+        <v>25.76663982255887</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.55951999887348</v>
+        <v>13.62314447925576</v>
       </c>
       <c r="B52" t="n">
-        <v>9.61639540979796</v>
+        <v>9.812231006629736</v>
       </c>
       <c r="C52" t="n">
-        <v>17.4005468505142</v>
+        <v>17.70007181420092</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.49080916329417</v>
+        <v>27.57477181131256</v>
       </c>
       <c r="B53" t="n">
-        <v>22.91765428739317</v>
+        <v>22.81404009643808</v>
       </c>
       <c r="C53" t="n">
-        <v>32.07246679860666</v>
+        <v>32.14326321058359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.99855517574677</v>
+        <v>29.02819160186722</v>
       </c>
       <c r="B54" t="n">
-        <v>23.42062882041194</v>
+        <v>23.35895602410338</v>
       </c>
       <c r="C54" t="n">
-        <v>35.5484144426945</v>
+        <v>35.8746516918341</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29.00521318097555</v>
+        <v>28.94115023989576</v>
       </c>
       <c r="B55" t="n">
-        <v>23.54154488645036</v>
+        <v>24.314218892017</v>
       </c>
       <c r="C55" t="n">
-        <v>34.51546431745504</v>
+        <v>34.10840275050771</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.34507681341111</v>
+        <v>14.40810533684264</v>
       </c>
       <c r="B56" t="n">
-        <v>9.285282894543212</v>
+        <v>9.058429515973373</v>
       </c>
       <c r="C56" t="n">
-        <v>19.54888960258845</v>
+        <v>19.88280472781732</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12.07391721041079</v>
+        <v>12.01756909840416</v>
       </c>
       <c r="B57" t="n">
-        <v>6.807979727924194</v>
+        <v>6.60512805544743</v>
       </c>
       <c r="C57" t="n">
-        <v>17.87896742699484</v>
+        <v>18.01276797216739</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30.7515967334001</v>
+        <v>30.7410134825391</v>
       </c>
       <c r="B58" t="n">
-        <v>25.20880619822542</v>
+        <v>25.3197571103732</v>
       </c>
       <c r="C58" t="n">
-        <v>36.53664849784473</v>
+        <v>36.75547520740651</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.20246229846897</v>
+        <v>17.14318036364662</v>
       </c>
       <c r="B59" t="n">
-        <v>12.88657490332941</v>
+        <v>12.61642758959767</v>
       </c>
       <c r="C59" t="n">
-        <v>20.98103690693983</v>
+        <v>20.85241626923195</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30.81750614129525</v>
+        <v>30.81039527714425</v>
       </c>
       <c r="B60" t="n">
-        <v>25.20597628531336</v>
+        <v>25.112115917388</v>
       </c>
       <c r="C60" t="n">
-        <v>37.94516822065026</v>
+        <v>37.48842293111026</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14.93502246988436</v>
+        <v>14.88676128645266</v>
       </c>
       <c r="B61" t="n">
-        <v>9.558393552948555</v>
+        <v>9.641954428323732</v>
       </c>
       <c r="C61" t="n">
-        <v>21.2017040924567</v>
+        <v>21.08290404360056</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17.88495133539031</v>
+        <v>17.95531811224322</v>
       </c>
       <c r="B62" t="n">
-        <v>13.18162123143192</v>
+        <v>13.38666283639152</v>
       </c>
       <c r="C62" t="n">
-        <v>22.18051154108605</v>
+        <v>22.33636965776128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.20586780251024</v>
+        <v>15.04126008921414</v>
       </c>
       <c r="B63" t="n">
-        <v>9.464270383047007</v>
+        <v>9.48685475705855</v>
       </c>
       <c r="C63" t="n">
-        <v>22.30467079399461</v>
+        <v>22.30129071795281</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.8018364942379</v>
+        <v>30.83455451055686</v>
       </c>
       <c r="B64" t="n">
-        <v>25.13474341826958</v>
+        <v>25.14039566445994</v>
       </c>
       <c r="C64" t="n">
-        <v>37.90265954646048</v>
+        <v>37.53926007847735</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.40854569183903</v>
+        <v>11.43711189955691</v>
       </c>
       <c r="B65" t="n">
-        <v>6.816346489110071</v>
+        <v>6.601256919929904</v>
       </c>
       <c r="C65" t="n">
-        <v>16.47741136022033</v>
+        <v>16.50076222766064</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.67106408566617</v>
+        <v>22.65683687311056</v>
       </c>
       <c r="B66" t="n">
-        <v>17.78891405773436</v>
+        <v>17.68063108330326</v>
       </c>
       <c r="C66" t="n">
-        <v>27.45782308368279</v>
+        <v>27.57345099009945</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.07931862838856</v>
+        <v>22.03616481427795</v>
       </c>
       <c r="B67" t="n">
-        <v>17.98823482577687</v>
+        <v>17.87391869419686</v>
       </c>
       <c r="C67" t="n">
-        <v>26.54522697150175</v>
+        <v>26.58008719190207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27.06624785979034</v>
+        <v>27.17610390108888</v>
       </c>
       <c r="B68" t="n">
-        <v>21.9857061245029</v>
+        <v>22.03592134245795</v>
       </c>
       <c r="C68" t="n">
-        <v>32.39936303351799</v>
+        <v>32.19970016935726</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.85396397284632</v>
+        <v>10.79283631795828</v>
       </c>
       <c r="B69" t="n">
-        <v>5.445729602305348</v>
+        <v>5.455960720949792</v>
       </c>
       <c r="C69" t="n">
-        <v>18.66683966691313</v>
+        <v>18.91199476908429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.81052981368865</v>
+        <v>24.96850649728603</v>
       </c>
       <c r="B70" t="n">
-        <v>20.23232467476711</v>
+        <v>20.33182006662399</v>
       </c>
       <c r="C70" t="n">
-        <v>29.74853683529229</v>
+        <v>29.81817576862498</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.67735553894223</v>
+        <v>19.64256785877452</v>
       </c>
       <c r="B71" t="n">
-        <v>16.81934492637736</v>
+        <v>16.88583505025246</v>
       </c>
       <c r="C71" t="n">
-        <v>22.66781668396511</v>
+        <v>22.64086843200622</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22.88056118494628</v>
+        <v>22.85077740031533</v>
       </c>
       <c r="B72" t="n">
-        <v>19.58285120643897</v>
+        <v>19.55563520380617</v>
       </c>
       <c r="C72" t="n">
-        <v>26.22601805895703</v>
+        <v>26.1174633631134</v>
       </c>
     </row>
   </sheetData>
